--- a/andamento das aulas.xlsx
+++ b/andamento das aulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Repositorios GIT\treinaWeb\javaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455E6FD-F3BE-418D-A6ED-5781DA64899B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D83B6-8BE8-4BB8-BE39-338A010738E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>JAVASCRIPT BASICO</t>
   </si>
@@ -42,7 +42,25 @@
     <t>OPERADORES</t>
   </si>
   <si>
-    <t>CONTINUAR DO VIDEO: O QUE SÃO OPERADORES</t>
+    <t>DECALRAÇÃO DE VARIAVEIS</t>
+  </si>
+  <si>
+    <t>TOMANDO DECISOES</t>
+  </si>
+  <si>
+    <t>TAREFAS REPETITIVAS - LAÇOS DE REPETIÇÃO</t>
+  </si>
+  <si>
+    <t>REUTILIZANDO CODIGOS - FUNÇÕES</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DE DADOS - OBJETOS E ARRAYS</t>
+  </si>
+  <si>
+    <t>TRABALHANDO COM NUMEROS E O OBJETO MATH</t>
+  </si>
+  <si>
+    <t>CONTINUAR: TRABALHANDO COM NUMEROS - PROPRIEDADES E METODOS</t>
   </si>
 </sst>
 </file>
@@ -360,16 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +416,55 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/andamento das aulas.xlsx
+++ b/andamento das aulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Repositorios GIT\treinaWeb\javaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D83B6-8BE8-4BB8-BE39-338A010738E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC60D7A-8890-4B60-BD78-ED4C07C2D787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>JAVASCRIPT BASICO</t>
   </si>
@@ -60,7 +60,10 @@
     <t>TRABALHANDO COM NUMEROS E O OBJETO MATH</t>
   </si>
   <si>
-    <t>CONTINUAR: TRABALHANDO COM NUMEROS - PROPRIEDADES E METODOS</t>
+    <t>TRABALHANDO COM STRINGS - FORMATANDO TEXTOS</t>
+  </si>
+  <si>
+    <t>CONTINUAR:TRABALHANDO COM STRINGS - PROPRIEDADES E METODOS</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -386,7 +389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,7 +467,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/andamento das aulas.xlsx
+++ b/andamento das aulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Repositorios GIT\treinaWeb\javaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC60D7A-8890-4B60-BD78-ED4C07C2D787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D7482-3688-4EEA-8B25-9A2C95A0A18E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>JAVASCRIPT BASICO</t>
   </si>
@@ -63,7 +63,10 @@
     <t>TRABALHANDO COM STRINGS - FORMATANDO TEXTOS</t>
   </si>
   <si>
-    <t>CONTINUAR:TRABALHANDO COM STRINGS - PROPRIEDADES E METODOS</t>
+    <t>TRABALHANDO COM DATAS - O OBJETO DATE</t>
+  </si>
+  <si>
+    <t>TRABALHANDO COM DATAS - PROPRIEDADES E METODOS</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
